--- a/biology/Médecine/Raphaël_Rodriguez/Raphaël_Rodriguez.xlsx
+++ b/biology/Médecine/Raphaël_Rodriguez/Raphaël_Rodriguez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Rodriguez</t>
+          <t>Raphaël_Rodriguez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raphaël Rodriguez, né le 27 octobre 1978 à Avignon (France), est un scientifique français.
 Directeur de recherche au CNRS, il dirige l'équipe « Chemical Biology » à l'Institut Curie. Ses travaux portent sur la compréhension de la biologie du cancer à l'échelle moléculaire. Il étudie notamment le rôle des métaux dans la régulation de la plasticité cellulaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Rodriguez</t>
+          <t>Raphaël_Rodriguez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raphaël Joël Rodriguez a été élevé par ses parents dans le sud de la France aux côtés de son frère ainé et de sa sœur cadette. Il a deux enfants[1]. Après un échec en première année détudes de médecine, il bifurque vers un cursus de chimie-biologie à l’université d’Avignon, un doctorat à Marseille et Oxford (Royaume-Uni)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphaël Joël Rodriguez a été élevé par ses parents dans le sud de la France aux côtés de son frère ainé et de sa sœur cadette. Il a deux enfants. Après un échec en première année détudes de médecine, il bifurque vers un cursus de chimie-biologie à l’université d’Avignon, un doctorat à Marseille et Oxford (Royaume-Uni).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Rodriguez</t>
+          <t>Raphaël_Rodriguez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raphaël Rodriguez, docteur en science, FRSC, Directeur de Recherche au CNRS est un chercheur de l'Institut Curie où il est titulaire de la chaire Skłodowska-Curie de chemical biology.[réf. nécessaire] Il s'est formé en tant que doctorant puis chercheur postdoctorant sous le mentorat de Sir Jack Edward Baldwin (Oxford, 2004) et Sir Shankar Balasubramanian[2] avec lesquels il a acquis ses connaissances en chimie de synthèse et chimie supramoléculaire. Il a ensuite appris la biologie cellulaire avec le Professeur Stephen Jackson (en) avec lequel il a également co-fondé Adrestia Therapeutics.[réf. nécessaire]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphaël Rodriguez, docteur en science, FRSC, Directeur de Recherche au CNRS est un chercheur de l'Institut Curie où il est titulaire de la chaire Skłodowska-Curie de chemical biology.[réf. nécessaire] Il s'est formé en tant que doctorant puis chercheur postdoctorant sous le mentorat de Sir Jack Edward Baldwin (Oxford, 2004) et Sir Shankar Balasubramanian avec lesquels il a acquis ses connaissances en chimie de synthèse et chimie supramoléculaire. Il a ensuite appris la biologie cellulaire avec le Professeur Stephen Jackson (en) avec lequel il a également co-fondé Adrestia Therapeutics.[réf. nécessaire]
 À l'âge de 32 ans, il installe son laboratoire à l'ICSN (Gif-sur-Yvette, 2012). Il obtient l'Habilitation à Diriger des Recherches de l'Université Paris-Saclay cette même année. Il intégrera ensuite l'Institut Curie (Paris, 2015) où il étudie les bases moléculaires qui sous-tendent la biologie du cancer. Il y découvre le rôle clé des métaux dans la régulation de la plasticité des cellules cancéreuses et immunitaires. Il est membre de la Royal Society of Chemistry (FRSC) et nommé Chevalier de l'Ordre National du Mérite par Jean-Marie Lehn au nom du Président de la République Française, Emmanuel Macron.[réf. nécessaire]
-Il a reçu plusieurs distinctions et prix pour ses contributions scientifiques, notamment le Prix Tetrahedron Young Investigator[2], le Prix Klaus Grohe[3], le Prix Lacassagne (Collège de France) et le Grand Prix Charles Defforey (Institut de France), le Prix Liliane Bettencourt pour les sciences du vivant en 2023[2], et la médaille d'argent du CNRS en 2024[2].
+Il a reçu plusieurs distinctions et prix pour ses contributions scientifiques, notamment le Prix Tetrahedron Young Investigator, le Prix Klaus Grohe, le Prix Lacassagne (Collège de France) et le Grand Prix Charles Defforey (Institut de France), le Prix Liliane Bettencourt pour les sciences du vivant en 2023, et la médaille d'argent du CNRS en 2024.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Rodriguez</t>
+          <t>Raphaël_Rodriguez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Contributions scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Avec les Professeurs Balasubramanian et Jackson, il démontre par l'intervention de petites molécules (e.g. pyridostatine) que des structures de G-quadruplex d'ADN se forment dans le corps des gènes et contribuent à l'instabilité génomique. Plus tard, Raphaël Rodriguez et Stephen Jackson identifient l'acétyltransférase NAT10 comme un régulateur du vieillissement cellulaire. Ils développent un inhibiteur, la remodeline, qui inverse ces défauts.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Rodriguez</t>
+          <t>Raphaël_Rodriguez</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,19 +627,21 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2024 : Médaille d'argent du CNRS
 2023 : Prix Liliane Bettencourt pour les sciences du vivant
-2022 :  Chevalier de l'Ordre National du Mérite[4]
-2022 : Prix Klaus Grohe[5]
-2019 : Prix Lacassagne[6]
+2022 :  Chevalier de l'Ordre National du Mérite
+2022 : Prix Klaus Grohe
+2019 : Prix Lacassagne
 2019 : Grand Prix Charles Defforey[réf. nécessaire]
-2019 : Tetrahedron Young Investigator Award[7]
-2017 : Raphaël Rodriguez intègre la promotion 2017 du programme « Young Leaders » franco-britannique[8],[9]
-2017 : Prix du Cercle K2 en cancérologie[10]
+2019 : Tetrahedron Young Investigator Award
+2017 : Raphaël Rodriguez intègre la promotion 2017 du programme « Young Leaders » franco-britannique,
+2017 : Prix du Cercle K2 en cancérologie
 2015 : Prix Pierre Fabre pour l'innovation thérapeutique[réf. nécessaire]
-2006 : Prix de thèse Fournier de la Société chimique de France[11]</t>
+2006 : Prix de thèse Fournier de la Société chimique de France</t>
         </is>
       </c>
     </row>
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Rodriguez</t>
+          <t>Raphaël_Rodriguez</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +669,9 @@
           <t>Quelques publications scientifiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>A druggable copper-signalling pathway that drives inflammation. S. Solier, S. Müller, T. Cañeque, A. Versini, A. Mansart, F. Sindikubwabo, L. Baron, L. Emam, P. Gestraud, G. D. Pantoș, V. Gandon, C. Gaillet, T.-D. Wu, F. Dingli, D. Loew, S. Baulande, S. Durand, V. Sencio, C. Robil, F. Trottein, D. Péricat, E. Näser, C. Cougoule, E. Meunier, A.-L. Bègue, H. Salmon, N. Manel, A. Puisieux, S. Watson, M. A. Dawson, N. Servant, G. Kroemer, D. Annane, R. Rodriguez*. Nature DOI: 10.1038/s41586-023-06017-4
 Persister cancer cells: iron addiction and vulnerability to ferroptosis. R. Rodriguez, S. L. Schreiber, M. Conrad. Mol. Cell 82, 728-740 (2022)
